--- a/biology/Zoologie/Intelligence_des_céphalopodes/Intelligence_des_céphalopodes.xlsx
+++ b/biology/Zoologie/Intelligence_des_céphalopodes/Intelligence_des_céphalopodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Intelligence_des_c%C3%A9phalopodes</t>
+          <t>Intelligence_des_céphalopodes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'intelligence des céphalopodes est la capacité de ces derniers à s'adapter et à complexifier leur comportement en fonction des événements de leur environnement. Reposant sur un système nerveux fondamentalement différent de celui des vertébrés [1], son étude d'un point de vue comparatif permet une meilleure compréhension de l'intelligence de ceux-ci et donc de l'humain. Les représentants de la classe des céphalopodes, en particulier ceux de la sous-classe des Coléoïdes (seiches, calmars et pieuvres), sont considérés comme les plus intelligents des invertébrés et comme un exemple de l'évolution cognitive.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intelligence des céphalopodes est la capacité de ces derniers à s'adapter et à complexifier leur comportement en fonction des événements de leur environnement. Reposant sur un système nerveux fondamentalement différent de celui des vertébrés , son étude d'un point de vue comparatif permet une meilleure compréhension de l'intelligence de ceux-ci et donc de l'humain. Les représentants de la classe des céphalopodes, en particulier ceux de la sous-classe des Coléoïdes (seiches, calmars et pieuvres), sont considérés comme les plus intelligents des invertébrés et comme un exemple de l'évolution cognitive.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Intelligence_des_c%C3%A9phalopodes</t>
+          <t>Intelligence_des_céphalopodes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historiquement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve déjà chez Pline l'Ancien et son Histoire naturelle cette anecdote[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve déjà chez Pline l'Ancien et son Histoire naturelle cette anecdote :
 « Le coquillage n'a ni la vue ni aucune autre sensation que celle qui lui fait connaître l'aliment et le danger. En conséquence, les poulpes guettent le moment où il est ouvert, et mettent un petit caillou entre les valves, mais en dehors du corps même de l'animal, de peur qu'il ne chasse le caillou par ses contractions : dès lors ils attaquent leur proie avec sécurité, et ils extraient les chairs ; l'animal se contracte, mais en vain ; un coin rend ses efforts inutiles. Tant est grande l'habileté des animaux même les plus stupides ! »
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Intelligence_des_c%C3%A9phalopodes</t>
+          <t>Intelligence_des_céphalopodes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilisation d'outils
-À ce jour, la pieuvre est le seul invertébré à  avoir démontré sa capacité à faire usage d'outils. Au moins quatre spécimens d'Octopus marginatus ont été observés alors qu'ils manipulaient des coquilles de noix de coco pour s'en faire une sorte de carapace protectrice[3],[4]. La découverte de ce comportement a été rapportée par le journal Current Biology et a aussi été filmée. Beaucoup d'autres invertébrés usent de divers objets pour s'en faire des coquilles ou un camouflage, mais ces comportements sont loin d'égaler celui de la pieuvre en complexité.
+          <t>Utilisation d'outils</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À ce jour, la pieuvre est le seul invertébré à  avoir démontré sa capacité à faire usage d'outils. Au moins quatre spécimens d'Octopus marginatus ont été observés alors qu'ils manipulaient des coquilles de noix de coco pour s'en faire une sorte de carapace protectrice,. La découverte de ce comportement a été rapportée par le journal Current Biology et a aussi été filmée. Beaucoup d'autres invertébrés usent de divers objets pour s'en faire des coquilles ou un camouflage, mais ces comportements sont loin d'égaler celui de la pieuvre en complexité.
 	Pieuvre ouvrant un récipient en dévissant le bouchon de celui-ci
-Apprentissage
-Chez toutes les espèces de pieuvres, la femelle surveille sans relâche ses œufs jusqu'à leur éclosion, puis elle meurt, mort génétiquement programmée. Elle ne peut donc transmettre ses connaissances à sa progéniture[5]. Mais il existe peut-être une transmission culturelle de connaissances par les pairs, comme le laissent supposer de récentes observations de comportements sociaux chez cet animal initialement considéré comme solitaire[6]. Les colonies observées et les expériences menées en aquarium ont montré que les poulpes non seulement apprennent par eux-mêmes, mais aussi par l'observation de leurs congénères[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Intelligence_des_céphalopodes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intelligence_des_c%C3%A9phalopodes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pieuvres, poulpes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Apprentissage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez toutes les espèces de pieuvres, la femelle surveille sans relâche ses œufs jusqu'à leur éclosion, puis elle meurt, mort génétiquement programmée. Elle ne peut donc transmettre ses connaissances à sa progéniture. Mais il existe peut-être une transmission culturelle de connaissances par les pairs, comme le laissent supposer de récentes observations de comportements sociaux chez cet animal initialement considéré comme solitaire. Les colonies observées et les expériences menées en aquarium ont montré que les poulpes non seulement apprennent par eux-mêmes, mais aussi par l'observation de leurs congénères.
 </t>
         </is>
       </c>
